--- a/language.xlsx
+++ b/language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zdhsoft\git\excel2json\excel2json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\execl2json\execl2json\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,14 @@
   <sheets>
     <sheet name="tablelist" sheetId="1" r:id="rId1"/>
     <sheet name="language" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="kk" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>filename</t>
   </si>
@@ -102,15 +102,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id,en:txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,yn:txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id,cn:txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id,en:txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,yn:txt</t>
+    <t>#如果要读取的字段列表，有:的情况，表示输出字段名用后面指定的名称  如果  ChinaeseText:text  表示找到ChinaeseText文本，输出的名称为text</t>
+  </si>
+  <si>
+    <t>"cn"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"en"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"yn"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"key"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJJJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key,cn,en,yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅当类型为.json的时候有效，key表示要做key的字段，map表示是map类型，这个是固定值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,cn,en,yn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,21 +571,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="7" max="7" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,8 +602,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -522,10 +617,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -536,10 +634,10 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -550,7 +648,44 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -565,7 +700,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -628,12 +763,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/language.xlsx
+++ b/language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\execl2json\execl2json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zdhsoft\git\excel2json\excel2json\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>filename</t>
   </si>
@@ -202,6 +202,26 @@
   </si>
   <si>
     <t>id,cn,en,yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_yn.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_yn.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_yn.conf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_yn.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_yn.cfg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -688,6 +708,76 @@
         <v>45</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,17 +831,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/language.xlsx
+++ b/language.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -205,23 +205,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>language_yn.sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>language_yn.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>language_yn.conf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language_yn.key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>language_yn.cfg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,48 +721,6 @@
         <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
